--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H2">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I2">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J2">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +564,22 @@
         <v>0.016337</v>
       </c>
       <c r="O2">
-        <v>0.1561347172047327</v>
+        <v>0.1242225162340131</v>
       </c>
       <c r="P2">
-        <v>0.1561347172047327</v>
+        <v>0.1242225162340131</v>
       </c>
       <c r="Q2">
-        <v>0.002039313220777778</v>
+        <v>0.006053784263333334</v>
       </c>
       <c r="R2">
-        <v>0.018353818987</v>
+        <v>0.05448405837</v>
       </c>
       <c r="S2">
-        <v>0.009531560799020889</v>
+        <v>0.02042473391637109</v>
       </c>
       <c r="T2">
-        <v>0.009531560799020887</v>
+        <v>0.02042473391637109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,75 +587,75 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H3">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I3">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J3">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.02943233333333333</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N3">
-        <v>0.08829699999999999</v>
+        <v>0.092858</v>
       </c>
       <c r="O3">
-        <v>0.8438652827952673</v>
+        <v>0.706069315814286</v>
       </c>
       <c r="P3">
-        <v>0.8438652827952673</v>
+        <v>0.7060693158142859</v>
       </c>
       <c r="Q3">
-        <v>0.01102192810522222</v>
+        <v>0.03440915095333333</v>
       </c>
       <c r="R3">
-        <v>0.09919735294699998</v>
+        <v>0.30968235858</v>
       </c>
       <c r="S3">
-        <v>0.05151546941734389</v>
+        <v>0.1160923022590675</v>
       </c>
       <c r="T3">
-        <v>0.05151546941734389</v>
+        <v>0.1160923022590675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.135293000000001</v>
+        <v>1.11167</v>
       </c>
       <c r="H4">
-        <v>15.405879</v>
+        <v>3.33501</v>
       </c>
       <c r="I4">
-        <v>0.8371376774088587</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J4">
-        <v>0.8371376774088587</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.005445666666666667</v>
+        <v>0.007439666666666666</v>
       </c>
       <c r="N4">
-        <v>0.016337</v>
+        <v>0.022319</v>
       </c>
       <c r="O4">
-        <v>0.1561347172047327</v>
+        <v>0.169708167951701</v>
       </c>
       <c r="P4">
-        <v>0.1561347172047327</v>
+        <v>0.169708167951701</v>
       </c>
       <c r="Q4">
-        <v>0.02796509391366667</v>
+        <v>0.008270454243333333</v>
       </c>
       <c r="R4">
-        <v>0.251685845223</v>
+        <v>0.07443408819</v>
       </c>
       <c r="S4">
-        <v>0.1307062545236589</v>
+        <v>0.02790350959658972</v>
       </c>
       <c r="T4">
-        <v>0.1307062545236589</v>
+        <v>0.02790350959658972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,60 +726,60 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H5">
         <v>15.405879</v>
       </c>
       <c r="I5">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J5">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02943233333333333</v>
+        <v>0.005445666666666667</v>
       </c>
       <c r="N5">
-        <v>0.08829699999999999</v>
+        <v>0.016337</v>
       </c>
       <c r="O5">
-        <v>0.8438652827952673</v>
+        <v>0.1242225162340131</v>
       </c>
       <c r="P5">
-        <v>0.8438652827952673</v>
+        <v>0.1242225162340131</v>
       </c>
       <c r="Q5">
-        <v>0.1511436553403333</v>
+        <v>0.02796509391366667</v>
       </c>
       <c r="R5">
-        <v>1.360292898063</v>
+        <v>0.251685845223</v>
       </c>
       <c r="S5">
-        <v>0.7064314228851998</v>
+        <v>0.0943508353266734</v>
       </c>
       <c r="T5">
-        <v>0.7064314228851998</v>
+        <v>0.09435083532667342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,60 +788,60 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5594206666666667</v>
+        <v>5.135293</v>
       </c>
       <c r="H6">
-        <v>1.678262</v>
+        <v>15.405879</v>
       </c>
       <c r="I6">
-        <v>0.09119481937794953</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J6">
-        <v>0.09119481937794954</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.005445666666666667</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N6">
-        <v>0.016337</v>
+        <v>0.092858</v>
       </c>
       <c r="O6">
-        <v>0.1561347172047327</v>
+        <v>0.706069315814286</v>
       </c>
       <c r="P6">
-        <v>0.1561347172047327</v>
+        <v>0.7060693158142859</v>
       </c>
       <c r="Q6">
-        <v>0.003046418477111111</v>
+        <v>0.1589510124646667</v>
       </c>
       <c r="R6">
-        <v>0.027417766294</v>
+        <v>1.430559112182</v>
       </c>
       <c r="S6">
-        <v>0.01423867733411283</v>
+        <v>0.5362814388666364</v>
       </c>
       <c r="T6">
-        <v>0.01423867733411283</v>
+        <v>0.5362814388666364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,57 +850,57 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5594206666666667</v>
+        <v>5.135293</v>
       </c>
       <c r="H7">
-        <v>1.678262</v>
+        <v>15.405879</v>
       </c>
       <c r="I7">
-        <v>0.09119481937794953</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J7">
-        <v>0.09119481937794954</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.02943233333333333</v>
+        <v>0.007439666666666666</v>
       </c>
       <c r="N7">
-        <v>0.08829699999999999</v>
+        <v>0.022319</v>
       </c>
       <c r="O7">
-        <v>0.8438652827952673</v>
+        <v>0.169708167951701</v>
       </c>
       <c r="P7">
-        <v>0.8438652827952673</v>
+        <v>0.169708167951701</v>
       </c>
       <c r="Q7">
-        <v>0.01646505553488889</v>
+        <v>0.03820486815566666</v>
       </c>
       <c r="R7">
-        <v>0.148185499814</v>
+        <v>0.343843813401</v>
       </c>
       <c r="S7">
-        <v>0.0769561420438367</v>
+        <v>0.1288985917644625</v>
       </c>
       <c r="T7">
-        <v>0.07695614204383672</v>
+        <v>0.1288985917644625</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -909,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06514966666666668</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H8">
-        <v>0.195449</v>
+        <v>0.260443</v>
       </c>
       <c r="I8">
-        <v>0.01062047299682699</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J8">
-        <v>0.01062047299682699</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,33 +936,33 @@
         <v>0.016337</v>
       </c>
       <c r="O8">
-        <v>0.1561347172047327</v>
+        <v>0.1242225162340131</v>
       </c>
       <c r="P8">
-        <v>0.1561347172047327</v>
+        <v>0.1242225162340131</v>
       </c>
       <c r="Q8">
-        <v>0.0003547833681111112</v>
+        <v>0.0004727619212222222</v>
       </c>
       <c r="R8">
-        <v>0.003193050313</v>
+        <v>0.004254857291</v>
       </c>
       <c r="S8">
-        <v>0.001658224547940083</v>
+        <v>0.001595041386796872</v>
       </c>
       <c r="T8">
-        <v>0.001658224547940082</v>
+        <v>0.001595041386796872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -971,46 +974,480 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06514966666666668</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H9">
-        <v>0.195449</v>
+        <v>0.260443</v>
       </c>
       <c r="I9">
-        <v>0.01062047299682699</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J9">
-        <v>0.01062047299682699</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02943233333333333</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N9">
-        <v>0.08829699999999999</v>
+        <v>0.092858</v>
       </c>
       <c r="O9">
-        <v>0.8438652827952673</v>
+        <v>0.706069315814286</v>
       </c>
       <c r="P9">
-        <v>0.8438652827952673</v>
+        <v>0.7060693158142859</v>
       </c>
       <c r="Q9">
-        <v>0.001917506705888889</v>
+        <v>0.002687135121555555</v>
       </c>
       <c r="R9">
-        <v>0.017257560353</v>
+        <v>0.024184216094</v>
       </c>
       <c r="S9">
-        <v>0.008962248448886909</v>
+        <v>0.00906606801096798</v>
       </c>
       <c r="T9">
-        <v>0.008962248448886909</v>
+        <v>0.00906606801096798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08681433333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.260443</v>
+      </c>
+      <c r="I10">
+        <v>0.01284019544244376</v>
+      </c>
+      <c r="J10">
+        <v>0.01284019544244376</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007439666666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.022319</v>
+      </c>
+      <c r="O10">
+        <v>0.169708167951701</v>
+      </c>
+      <c r="P10">
+        <v>0.169708167951701</v>
+      </c>
+      <c r="Q10">
+        <v>0.0006458697018888888</v>
+      </c>
+      <c r="R10">
+        <v>0.005812827317</v>
+      </c>
+      <c r="S10">
+        <v>0.002179086044678911</v>
+      </c>
+      <c r="T10">
+        <v>0.002179086044678911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.34273</v>
+      </c>
+      <c r="H11">
+        <v>1.02819</v>
+      </c>
+      <c r="I11">
+        <v>0.05069117062837646</v>
+      </c>
+      <c r="J11">
+        <v>0.05069117062837647</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.005445666666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.016337</v>
+      </c>
+      <c r="O11">
+        <v>0.1242225162340131</v>
+      </c>
+      <c r="P11">
+        <v>0.1242225162340131</v>
+      </c>
+      <c r="Q11">
+        <v>0.001866393336666667</v>
+      </c>
+      <c r="R11">
+        <v>0.01679754003</v>
+      </c>
+      <c r="S11">
+        <v>0.006296984766304625</v>
+      </c>
+      <c r="T11">
+        <v>0.006296984766304625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.34273</v>
+      </c>
+      <c r="H12">
+        <v>1.02819</v>
+      </c>
+      <c r="I12">
+        <v>0.05069117062837646</v>
+      </c>
+      <c r="J12">
+        <v>0.05069117062837647</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.03095266666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.092858</v>
+      </c>
+      <c r="O12">
+        <v>0.706069315814286</v>
+      </c>
+      <c r="P12">
+        <v>0.7060693158142859</v>
+      </c>
+      <c r="Q12">
+        <v>0.01060840744666667</v>
+      </c>
+      <c r="R12">
+        <v>0.09547566701999999</v>
+      </c>
+      <c r="S12">
+        <v>0.035791480163403</v>
+      </c>
+      <c r="T12">
+        <v>0.035791480163403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.34273</v>
+      </c>
+      <c r="H13">
+        <v>1.02819</v>
+      </c>
+      <c r="I13">
+        <v>0.05069117062837646</v>
+      </c>
+      <c r="J13">
+        <v>0.05069117062837647</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.007439666666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.022319</v>
+      </c>
+      <c r="O13">
+        <v>0.169708167951701</v>
+      </c>
+      <c r="P13">
+        <v>0.169708167951701</v>
+      </c>
+      <c r="Q13">
+        <v>0.002549796956666666</v>
+      </c>
+      <c r="R13">
+        <v>0.02294817261</v>
+      </c>
+      <c r="S13">
+        <v>0.008602705698668844</v>
+      </c>
+      <c r="T13">
+        <v>0.008602705698668845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.253892</v>
+      </c>
+      <c r="I14">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J14">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.005445666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.016337</v>
+      </c>
+      <c r="O14">
+        <v>0.1242225162340131</v>
+      </c>
+      <c r="P14">
+        <v>0.1242225162340131</v>
+      </c>
+      <c r="Q14">
+        <v>0.0004608704004444445</v>
+      </c>
+      <c r="R14">
+        <v>0.004147833604</v>
+      </c>
+      <c r="S14">
+        <v>0.001554920837867139</v>
+      </c>
+      <c r="T14">
+        <v>0.001554920837867139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.253892</v>
+      </c>
+      <c r="I15">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J15">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.03095266666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.092858</v>
+      </c>
+      <c r="O15">
+        <v>0.706069315814286</v>
+      </c>
+      <c r="P15">
+        <v>0.7060693158142859</v>
+      </c>
+      <c r="Q15">
+        <v>0.002619544815111111</v>
+      </c>
+      <c r="R15">
+        <v>0.023575903336</v>
+      </c>
+      <c r="S15">
+        <v>0.008838026514211105</v>
+      </c>
+      <c r="T15">
+        <v>0.008838026514211105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.253892</v>
+      </c>
+      <c r="I16">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J16">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.007439666666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.022319</v>
+      </c>
+      <c r="O16">
+        <v>0.169708167951701</v>
+      </c>
+      <c r="P16">
+        <v>0.169708167951701</v>
+      </c>
+      <c r="Q16">
+        <v>0.0006296239497777779</v>
+      </c>
+      <c r="R16">
+        <v>0.005666615547999999</v>
+      </c>
+      <c r="S16">
+        <v>0.002124274847301015</v>
+      </c>
+      <c r="T16">
+        <v>0.002124274847301015</v>
       </c>
     </row>
   </sheetData>
